--- a/medicine/Enfance/Henry_De_Vere_Stacpoole/Henry_De_Vere_Stacpoole.xlsx
+++ b/medicine/Enfance/Henry_De_Vere_Stacpoole/Henry_De_Vere_Stacpoole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry De Vere Stacpoole, né le 9 avril 1863 à Kingstown (maintenant Dún Laoghaire) en Irlande et décédé le 12 avril 1951 à Shanklin sur l'Île de Wight, est un écrivain irlandais. Il a également publié sous le pseudonyme Tyler De Saix pour une partie de son œuvre policière.
 Il est notamment connu pour le roman Le Lagon bleu, plusieurs fois adapté à l'écran.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Médecin naval pendant plus de quarante ans, Stacpoole connaissait parfaitement les îles du Pacifique Sud. Il a souvent puisé dans cette expérience pour décrire, dans ses livres, la nature et les cultures qui lui étaient devenus familiers. Il a publié de nombreux ouvrages appartenant à de nombreux genres populaires, dont le roman policier et, surtout, le roman d'aventures. Son œuvre la plus connue demeure d'ailleurs Le Lagon bleu (intitulé La Lagune bleue dans la première traduction parue en France), un roman d'aventures à la fois exotique et romantique, publié en 1908, et adaptée depuis à quatre reprises au cinéma ou une à la télévision.
 Il a également créé des romans fantastiques, ainsi qu'un roman et quelques nouvelles de science-fiction. 
@@ -547,13 +561,60 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Le Lagon bleu
-The Blue Lagoon (1908) Publié en français sous le titre La Lagune bleue, Paris, Hachette, coll. Les Meilleurs Romans étrangers, 1929 ; réédition de la même traduction revue et corrigée sous le titre Le Lagon bleu, Paris, Hachette, 1950
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Le Lagon bleu</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Blue Lagoon (1908) Publié en français sous le titre La Lagune bleue, Paris, Hachette, coll. Les Meilleurs Romans étrangers, 1929 ; réédition de la même traduction revue et corrigée sous le titre Le Lagon bleu, Paris, Hachette, 1950
 The Garden of God (1923)
 The Gates of Morning (1925)
-The Girl of the Golden Reef: a Romance of the Blue Lagoon (1929)
-Romans
+The Girl of the Golden Reef: a Romance of the Blue Lagoon (1929)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Intended: a Novel (1894)
 Pierrot! a Story (1895)
 The Doctor: a Study from Life (1899)
@@ -616,79 +677,425 @@
 The Story of My Village (1947)
 The Land of Little Horses: a Story (1949)
 The Man in Armour (1949)
-Romans policiers
-The Lady-Killer (1902)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Lady-Killer (1902)
 The Cottage on the Fells ou Murder on the Fell (1908)
 The Man Without a Head (1908), signé Tyler de Saix Publié en français sous le titre Le Mystérieux Décapité, Paris, Tallandier, coll. Romans mystérieux 1re série, 1911 Publié en français dans une autre traduction sous le titre L'Homme sans tête, Paris, Librairie des Champs-Élysées, Le Masque no 59, 1930
 The Vulture's Prey (1908), signé Tyler de Saix
 The Man Who Lost Himself (1918) Publié en français sous le titre L'Homme qui a perdu son nom, Paris, Hachette, coll. L'Énigme, 1928 Adapté au cinéma par Clarence G. Badger et George D. Baker sous le titre Le Fantôme de Lord Barington en 1920.
 Golden Ballast (1924)
-The Mystery of Uncle Bollard (1927)
-Romans fantastiques
-Death, the Knight, and the Lady: a Ghost Story (1897)
+The Mystery of Uncle Bollard (1927)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans fantastiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Death, the Knight, and the Lady: a Ghost Story (1897)
 The Starlit Garden: a Romance of the South ou The Ghost Girl (É.-U.) (1917)
-The Sunstone (1936)
-Romans de littérature d'enfance et de jeunesse
-Feyshad (1914)
+The Sunstone (1936)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Feyshad (1914)
 The Little Prince  (1914)
 Pierrette (1914)
-The Story of Abdul and Hafiz (1914)
-Roman de science-fiction
-The City in the Sea (1925)
-Recueils de nouvelles
-The North Sea and Other Poems (1915)
+The Story of Abdul and Hafiz (1914)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Roman de science-fiction</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The City in the Sea (1925)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>The North Sea and Other Poems (1915)
 Stories East and West: Tales of Men and Women (1926)
 The Vengeance of Mynheer Van Lok and Other Stories (1934)
 Green Coral (1935)
-Old Sailors Never Lie and Other Tales of Land and Sea by One of Them (1938)
-Poésie
-Poems and Ballads (1910)
-In a Bonchurch Garden: Poems and Translations (1937)
-Autobiographie
-Men and Mice, 1863-1942 (1942)
-More Men and Mice (1945)
-Biographie
-Francois Villon: His Life and Times, 1431-1463 (1916)
-Traduction
-The Poems of Francois Villon (1914)
+Old Sailors Never Lie and Other Tales of Land and Sea by One of Them (1938)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Poems and Ballads (1910)
+In a Bonchurch Garden: Poems and Translations (1937)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autobiographie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Men and Mice, 1863-1942 (1942)
+More Men and Mice (1945)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Francois Villon: His Life and Times, 1431-1463 (1916)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Traduction</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>The Poems of Francois Villon (1914)
 Sappho: a New Rendering (1920)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Henry_De_Vere_Stacpoole</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Henry_De_Vere_Stacpoole</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Adaptations de son œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>D'après Le Lagon bleu
-Le Lagon bleu (The Blue Lagoon), film de W. Bowden et Dick Cruickshanks, sorti en 1923 au cinéma ;
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>D'après Le Lagon bleu</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Le Lagon bleu (The Blue Lagoon), film de W. Bowden et Dick Cruickshanks, sorti en 1923 au cinéma ;
 Le Lagon bleu (The Blue Lagoon), film de Frank Launder, sorti en 1949 au cinéma ;
 Le Lagon bleu (The Blue Lagoon), film de Randal Kleiser, sorti en 1980 au cinéma ;
 Retour au lagon bleu (Return to the Blue Lagoon), film de William A. Graham, sorti en 1991 au cinéma, suite du précédent ;
-Les Naufragés du lagon bleu (Blue Lagoon: The Awakening), téléfilm américain réalisé par Jake Newsome et Mikael Salomon, diffusé en 2012.
-Autres
-Bohémiens de la mer (Satan's Sister), film de George Pearson, sorti en 1925, d'après le roman Satan.</t>
+Les Naufragés du lagon bleu (Blue Lagoon: The Awakening), téléfilm américain réalisé par Jake Newsome et Mikael Salomon, diffusé en 2012.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henry_De_Vere_Stacpoole</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Adaptations de son œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Bohémiens de la mer (Satan's Sister), film de George Pearson, sorti en 1925, d'après le roman Satan.</t>
         </is>
       </c>
     </row>
